--- a/docs/database/SQL_Final.xlsx
+++ b/docs/database/SQL_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\大專\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E13639-F873-4208-BA23-17AE8EE8EBE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04168824-43E4-4783-BDC6-E972BDA7AE54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Extra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看板頁面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,6 +411,14 @@
   </si>
   <si>
     <t>1.會員資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好度( double )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +844,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -992,22 +996,22 @@
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1017,7 +1021,7 @@
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1069,13 +1073,13 @@
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>52</v>
@@ -1121,7 +1125,7 @@
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
@@ -1224,14 +1228,14 @@
         <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1245,10 +1249,10 @@
         <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>29</v>
@@ -1264,7 +1268,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>31</v>
@@ -1291,10 +1295,10 @@
         <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>29</v>
@@ -1306,18 +1310,18 @@
       <c r="C20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>30</v>
@@ -1336,19 +1340,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>56</v>
@@ -1357,14 +1361,14 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>32</v>
@@ -1376,21 +1380,21 @@
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -1403,7 +1407,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>32</v>
@@ -1417,10 +1421,10 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="E28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>56</v>
@@ -1428,17 +1432,17 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>32</v>
@@ -1447,14 +1451,14 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>29</v>
@@ -1473,10 +1477,10 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="E32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>32</v>
@@ -1501,10 +1505,10 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="E34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>32</v>
@@ -1537,10 +1541,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>32</v>
@@ -1549,10 +1553,10 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">

--- a/docs/database/SQL_Final.xlsx
+++ b/docs/database/SQL_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\大專\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04168824-43E4-4783-BDC6-E972BDA7AE54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A21E5-4A96-4D79-B437-9EBF72614932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -844,7 +844,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1076,25 +1076,29 @@
         <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>

--- a/docs/database/SQL_Final.xlsx
+++ b/docs/database/SQL_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\大專\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A21E5-4A96-4D79-B437-9EBF72614932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CD6ED8-0F8C-4CB6-B481-F2473C30D2AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,14 +190,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>資料表屬性10</t>
-  </si>
-  <si>
     <t>手機號碼( int )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片編號( int )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>內文( nvarchar(500) )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品介紹( nvarchar(500) )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +408,22 @@
   </si>
   <si>
     <t>偏好度( double )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內文( nvarchar(MAX) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言內容( nvarchar(250) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -482,13 +487,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,6 +532,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -858,16 +891,15 @@
     <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -893,11 +925,8 @@
       <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -911,28 +940,25 @@
         <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="I2" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -943,25 +969,22 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -972,56 +995,48 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1030,19 +1045,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1053,168 +1065,160 @@
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="5"/>
@@ -1224,349 +1228,359 @@
       <c r="H14" s="2"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="F20" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="F24" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="3"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F29" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/database/SQL_Final.xlsx
+++ b/docs/database/SQL_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\大專\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A21E5-4A96-4D79-B437-9EBF72614932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBF1107-0A38-47DA-AC95-8EAA1575E3B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>圖片編號( int )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>資料表屬性4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,14 +186,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>資料表屬性10</t>
-  </si>
-  <si>
     <t>手機號碼( int )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片編號( int )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>內文( nvarchar(500) )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品介紹( nvarchar(500) )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +404,26 @@
   </si>
   <si>
     <t>偏好度( double )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內文( nvarchar(MAX) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言內容( nvarchar(250) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductCategories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsPicture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -482,13 +487,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,6 +532,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,15 +874,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.25" style="1" bestFit="1" customWidth="1"/>
@@ -858,16 +891,15 @@
     <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -876,697 +908,707 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="F22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="F26" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="E31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>28</v>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B36" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/database/SQL_Final.xlsx
+++ b/docs/database/SQL_Final.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\大專\FinalProject_GameForum\docs\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ching chang\FinalProject_GameForum\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBF1107-0A38-47DA-AC95-8EAA1575E3B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318F05C3-E2A4-4519-AC1D-8A38A9E17A34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,16 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="181">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>資料表名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>資料表屬性2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用者ID( nvarchar(50) )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.文章 &amp; 延伸報導</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,10 +176,6 @@
   </si>
   <si>
     <t>性別( varchar(1) )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手機號碼( int )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -426,12 +415,291 @@
     <t>NewsPicture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>使用者</t>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新聞圖片</t>
+  </si>
+  <si>
+    <t>新聞圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品類別</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜好度</t>
+  </si>
+  <si>
+    <t>喜好度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品圖片</t>
+  </si>
+  <si>
+    <t>商品圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言板</t>
+  </si>
+  <si>
+    <t>留言板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論板</t>
+  </si>
+  <si>
+    <t>討論板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新聞</t>
+  </si>
+  <si>
+    <t>新聞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣告</t>
+  </si>
+  <si>
+    <t>廣告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀏覽紀錄</t>
+  </si>
+  <si>
+    <t>瀏覽紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頁面與資料表對應</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單</t>
+  </si>
+  <si>
+    <t>訂單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>資料表英文名稱</t>
+  </si>
+  <si>
+    <t>資料表英文名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表中文名稱</t>
+  </si>
+  <si>
+    <t>資料表中文名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>UserID (int)</t>
+  </si>
+  <si>
+    <t>Username (nvarchar(50))</t>
+  </si>
+  <si>
+    <t>Password (nvarchar(50))</t>
+  </si>
+  <si>
+    <t>PhotoURL (nvarchar(250))</t>
+  </si>
+  <si>
+    <t>Gender (varchar(1))</t>
+  </si>
+  <si>
+    <t>Birthdate (DateTime)</t>
+  </si>
+  <si>
+    <t>Address (nvarchar(100))</t>
+  </si>
+  <si>
+    <t>Email (nvarchar(100))</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>NewsID (int)</t>
+  </si>
+  <si>
+    <t>Title (nvarchar(50))</t>
+  </si>
+  <si>
+    <t>Content (nvarchar(MAX))</t>
+  </si>
+  <si>
+    <t>ImageURL (nvarchar(250))</t>
+  </si>
+  <si>
+    <t>EditDate (DateTime)</t>
+  </si>
+  <si>
+    <t>Category (nvarchar(25))</t>
+  </si>
+  <si>
+    <t>NewsPicture</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ProductID (int)</t>
+  </si>
+  <si>
+    <t>ProductName (nvarchar(50))</t>
+  </si>
+  <si>
+    <t>Description (nvarchar(500))</t>
+  </si>
+  <si>
+    <t>Price (int)</t>
+  </si>
+  <si>
+    <t>Stock (int)</t>
+  </si>
+  <si>
+    <t>Sold (int)</t>
+  </si>
+  <si>
+    <t>Rating (int)</t>
+  </si>
+  <si>
+    <t>ProductCategories</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>Preference (double)</t>
+  </si>
+  <si>
+    <t>ProductPicture</t>
+  </si>
+  <si>
+    <t>BoardID (int)</t>
+  </si>
+  <si>
+    <t>BoardName (nvarchar(50))</t>
+  </si>
+  <si>
+    <t>BoardDescription (nvarchar(500))</t>
+  </si>
+  <si>
+    <t>Views (int)</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>ArticleMessage</t>
+  </si>
+  <si>
+    <t>ArticleID (int)</t>
+  </si>
+  <si>
+    <t>Message (nvarchar(250))</t>
+  </si>
+  <si>
+    <t>Advertisement</t>
+  </si>
+  <si>
+    <t>AdID (int)</t>
+  </si>
+  <si>
+    <t>AdName (nvarchar(50))</t>
+  </si>
+  <si>
+    <t>ViewHistory</t>
+  </si>
+  <si>
+    <t>Date (DateTime)</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Quantity (int)</t>
+  </si>
+  <si>
+    <t>資料表屬性1 (PK)</t>
+  </si>
+  <si>
+    <t>資料表屬性2</t>
+  </si>
+  <si>
+    <t>資料表屬性3</t>
+  </si>
+  <si>
+    <t>資料表屬性4</t>
+  </si>
+  <si>
+    <t>資料表屬性5</t>
+  </si>
+  <si>
+    <t>使用者名稱( nvarchar(50) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手機號碼( nvarchar(20) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneNumber (nvarchar(20))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -455,16 +723,37 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -500,22 +789,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,8 +817,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -891,177 +1180,185 @@
     <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="22.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="J3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1069,184 +1366,217 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>88</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="5"/>
@@ -1257,7 +1587,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="5"/>
@@ -1268,351 +1598,813 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C31" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B039CA-AB70-4498-9310-60A37C46E82C}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/database/SQL_Final.xlsx
+++ b/docs/database/SQL_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ching chang\FinalProject_GameForum\FinalProject_GameForum\docs\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63954A0-250E-48E3-82FA-6C1C015B9936}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B454ACE6-FB2C-468A-ADAE-C04AA71908D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="202">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,14 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密碼( nvarchar(50) )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信箱( nvarchar(100) )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>性別( varchar(1) )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>類別( nvarchar(25) )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瀏覽數( int )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,10 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>評分(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>訂單</t>
   </si>
   <si>
@@ -664,14 +648,6 @@
   </si>
   <si>
     <t>資料表屬性5</t>
-  </si>
-  <si>
-    <t>使用者名稱( nvarchar(50) )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手機號碼( nvarchar(20) )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PhoneNumber (nvarchar(20))</t>
@@ -683,7 +659,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
@@ -695,12 +670,120 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>資料表屬性10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表屬性11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者ID( varchar(50) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者名稱(nvarchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼( varchar(64) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱( varchar(100) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手機號碼( char(10) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊日期(DateTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別( nvarchar(24) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分(double)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章群組編號(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發文日期(DateTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態(nvarchar(10))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀏覽紀錄編號(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單編號(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleGruop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章群組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未放入資料庫方法資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追蹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂閱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購物車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三驗證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服表單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -726,7 +809,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
@@ -755,7 +845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -791,13 +881,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,16 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -843,7 +961,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1198,810 +1337,892 @@
     <col min="8" max="8" width="18.75" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.75" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="12" max="12" width="23" style="6" customWidth="1"/>
+    <col min="13" max="13" width="20" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="14" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="B36" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="F36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-    </row>
-    <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="13" t="s">
+      <c r="H36" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2013,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B039CA-AB70-4498-9310-60A37C46E82C}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2027,11 +2248,14 @@
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2040,13 +2264,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -2054,10 +2278,15 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2069,16 +2298,25 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -2089,13 +2327,22 @@
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -2107,8 +2354,15 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -2118,34 +2372,37 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2155,7 +2412,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2164,66 +2421,66 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
@@ -2234,10 +2491,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -2247,35 +2504,35 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>29</v>
@@ -2284,7 +2541,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -2292,7 +2549,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>26</v>
@@ -2313,10 +2570,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>29</v>
@@ -2343,10 +2600,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>29</v>
@@ -2391,10 +2648,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
@@ -2407,10 +2664,10 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2418,6 +2675,9 @@
       <c r="G26" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
